--- a/Copy of User Details_Faf.xlsx
+++ b/Copy of User Details_Faf.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Edited_form" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edited_form!$A$1:$AD$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edited_form!$B$1:$AE$23</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg/1c76z7xhvwtdEeiqrWPnJjiooA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mg/1c76z7xhvwtdEeiqrWPnJjiooA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="313">
   <si>
     <t>Name</t>
   </si>
@@ -958,13 +958,16 @@
   </si>
   <si>
     <t>drink</t>
+  </si>
+  <si>
+    <t>images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -978,6 +981,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1002,10 +1011,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,6 +1028,319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>173627</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2072667</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="173627" y="647700"/>
+          <a:ext cx="1899040" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1320971</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1600199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314326" y="3076574"/>
+          <a:ext cx="1006645" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1711003</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457201" y="2371726"/>
+          <a:ext cx="1253802" cy="1247774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323851" y="7162801"/>
+          <a:ext cx="1409699" cy="1409699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1713043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="2105025"/>
+          <a:ext cx="1028700" cy="1598743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1466850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361951" y="5381626"/>
+          <a:ext cx="1352549" cy="1352549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>275968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="7019925"/>
+          <a:ext cx="1590675" cy="1504693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1221,2297 +1544,2299 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ1000"/>
+  <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1"/>
-    <col min="20" max="20" width="20.85546875" customWidth="1"/>
-    <col min="21" max="21" width="414.140625" customWidth="1"/>
-    <col min="22" max="22" width="126.85546875" customWidth="1"/>
-    <col min="23" max="23" width="80" customWidth="1"/>
-    <col min="24" max="24" width="65.5703125" customWidth="1"/>
-    <col min="25" max="25" width="176.85546875" customWidth="1"/>
-    <col min="26" max="26" width="112.140625" customWidth="1"/>
-    <col min="27" max="27" width="115" customWidth="1"/>
-    <col min="28" max="28" width="90.85546875" customWidth="1"/>
-    <col min="29" max="29" width="67.5703125" customWidth="1"/>
-    <col min="30" max="36" width="139.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="22" max="22" width="414.140625" customWidth="1"/>
+    <col min="23" max="23" width="126.85546875" customWidth="1"/>
+    <col min="24" max="24" width="80" customWidth="1"/>
+    <col min="25" max="25" width="65.5703125" customWidth="1"/>
+    <col min="26" max="26" width="176.85546875" customWidth="1"/>
+    <col min="27" max="27" width="112.140625" customWidth="1"/>
+    <col min="28" max="28" width="115" customWidth="1"/>
+    <col min="29" max="29" width="90.85546875" customWidth="1"/>
+    <col min="30" max="30" width="67.5703125" customWidth="1"/>
+    <col min="31" max="37" width="139.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="1">
         <v>66</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>0</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="1">
         <v>67.7</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:37" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1">
         <v>64</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:37" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="1">
         <v>71</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:37" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="1">
         <v>63.6</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:37" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="1">
         <v>66</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>320000</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:37" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="1">
         <v>64</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:37" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="1">
         <v>61.2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:37" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="1">
         <v>63</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="1">
         <v>61.2</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="1">
         <v>24</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="1">
         <v>65</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="1">
         <v>64.8</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AB14" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AB14" s="2" t="s">
+      <c r="AC14" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AD14" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AE14" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="1">
         <v>61.2</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:37" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>21</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="1">
         <v>61.2</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="1">
         <v>65</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="1">
         <v>60</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>5000</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="1">
         <v>67.2</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="1">
         <v>64.900000000000006</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="1">
         <v>61.32</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>14.5</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="1">
         <v>60</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="1">
         <v>64.8</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AC23" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4481,8 +4806,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AD23"/>
+  <autoFilter ref="B1:AE23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>